--- a/compare_models/other_models_interval.xlsx
+++ b/compare_models/other_models_interval.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B754DF-FE86-4452-B671-8A96A70A068D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9032C00A-472A-4E8E-B8D7-61EA914A5F16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1650" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="960" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="24">
   <si>
     <t>MAE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,22 @@
   </si>
   <si>
     <t>t=6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=288</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=576</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=864</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:K89"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -922,20 +938,68 @@
       <c r="A58" t="s">
         <v>2</v>
       </c>
+      <c r="B58">
+        <v>13.2364</v>
+      </c>
+      <c r="F58">
+        <v>10.766299999999999</v>
+      </c>
+      <c r="H58">
+        <v>11.2746</v>
+      </c>
+      <c r="L58">
+        <v>16.587</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
+      <c r="B59">
+        <v>39.518500000000003</v>
+      </c>
+      <c r="F59">
+        <v>31.552</v>
+      </c>
+      <c r="H59">
+        <v>33.588500000000003</v>
+      </c>
+      <c r="L59">
+        <v>39.469799999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
+      <c r="B60">
+        <v>62.68</v>
+      </c>
+      <c r="F60">
+        <v>50.280900000000003</v>
+      </c>
+      <c r="H60">
+        <v>51.432000000000002</v>
+      </c>
+      <c r="L60">
+        <v>53.880099999999999</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2E-3</v>
+      </c>
+      <c r="F61">
+        <v>12.44</v>
+      </c>
+      <c r="H61">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L61">
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -963,20 +1027,44 @@
       <c r="A63" t="s">
         <v>2</v>
       </c>
+      <c r="B63">
+        <v>12.895799999999999</v>
+      </c>
+      <c r="G63">
+        <v>16.722899999999999</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
+      <c r="B64">
+        <v>33.237900000000003</v>
+      </c>
+      <c r="G64">
+        <v>35.662799999999997</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
+      <c r="B65">
+        <v>47.132300000000001</v>
+      </c>
+      <c r="G65">
+        <v>47.840400000000002</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
+      </c>
+      <c r="B66">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G66">
+        <v>180.44300000000001</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -1010,20 +1098,68 @@
       <c r="A69" t="s">
         <v>2</v>
       </c>
+      <c r="B69">
+        <v>13.6403</v>
+      </c>
+      <c r="F69">
+        <v>10.902699999999999</v>
+      </c>
+      <c r="H69">
+        <v>11.292899999999999</v>
+      </c>
+      <c r="L69">
+        <v>16.8828</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
+      <c r="B70">
+        <v>38.840600000000002</v>
+      </c>
+      <c r="F70">
+        <v>31.867000000000001</v>
+      </c>
+      <c r="H70">
+        <v>33.5105</v>
+      </c>
+      <c r="L70">
+        <v>40.040100000000002</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
+      <c r="B71">
+        <v>62.606999999999999</v>
+      </c>
+      <c r="F71">
+        <v>50.630600000000001</v>
+      </c>
+      <c r="H71">
+        <v>50.789400000000001</v>
+      </c>
+      <c r="L71">
+        <v>54.671399999999998</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
+      </c>
+      <c r="B72">
+        <v>2E-3</v>
+      </c>
+      <c r="F72">
+        <v>12.058</v>
+      </c>
+      <c r="H72">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L72">
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -1051,20 +1187,44 @@
       <c r="A74" t="s">
         <v>2</v>
       </c>
+      <c r="B74">
+        <v>13.38</v>
+      </c>
+      <c r="G74">
+        <v>17.122900000000001</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
+      <c r="B75">
+        <v>34.237699999999997</v>
+      </c>
+      <c r="G75">
+        <v>36.577199999999998</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
+      <c r="B76">
+        <v>48.4283</v>
+      </c>
+      <c r="G76">
+        <v>49.243499999999997</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
+      </c>
+      <c r="B77">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G77">
+        <v>194.32400000000001</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -1098,20 +1258,68 @@
       <c r="A80" t="s">
         <v>2</v>
       </c>
+      <c r="B80">
+        <v>12.963699999999999</v>
+      </c>
+      <c r="F80">
+        <v>11.0502</v>
+      </c>
+      <c r="H80">
+        <v>11.315899999999999</v>
+      </c>
+      <c r="L80">
+        <v>17.3261</v>
+      </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
+      <c r="B81">
+        <v>38.284700000000001</v>
+      </c>
+      <c r="F81">
+        <v>32.225900000000003</v>
+      </c>
+      <c r="H81">
+        <v>33.309800000000003</v>
+      </c>
+      <c r="L81">
+        <v>40.968899999999998</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
+      <c r="B82">
+        <v>60.712000000000003</v>
+      </c>
+      <c r="F82">
+        <v>51.205100000000002</v>
+      </c>
+      <c r="H82">
+        <v>50.368400000000001</v>
+      </c>
+      <c r="L82">
+        <v>56.145200000000003</v>
+      </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
+      </c>
+      <c r="B83">
+        <v>2E-3</v>
+      </c>
+      <c r="F83">
+        <v>12.454000000000001</v>
+      </c>
+      <c r="H83">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L83">
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -1139,25 +1347,49 @@
       <c r="A85" t="s">
         <v>2</v>
       </c>
+      <c r="B85">
+        <v>13.902900000000001</v>
+      </c>
+      <c r="G85">
+        <v>17.463899999999999</v>
+      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
+      <c r="B86">
+        <v>35.258099999999999</v>
+      </c>
+      <c r="G86">
+        <v>37.475999999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
+      <c r="B87">
+        <v>49.6995</v>
+      </c>
+      <c r="G87">
+        <v>50.724400000000003</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
+      <c r="B88">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G88">
+        <v>206.44800000000001</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>6</v>
@@ -1186,20 +1418,68 @@
       <c r="A91" t="s">
         <v>2</v>
       </c>
+      <c r="B91">
+        <v>15.509</v>
+      </c>
+      <c r="F91">
+        <v>15.0097</v>
+      </c>
+      <c r="H91">
+        <v>12.895899999999999</v>
+      </c>
+      <c r="L91">
+        <v>25.1982</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
+      <c r="B92">
+        <v>38.820999999999998</v>
+      </c>
+      <c r="F92">
+        <v>39.101799999999997</v>
+      </c>
+      <c r="H92">
+        <v>34.279299999999999</v>
+      </c>
+      <c r="L92">
+        <v>54.101300000000002</v>
+      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
+      <c r="B93">
+        <v>66.14</v>
+      </c>
+      <c r="F93">
+        <v>62.341299999999997</v>
+      </c>
+      <c r="H93">
+        <v>54.766800000000003</v>
+      </c>
+      <c r="L93">
+        <v>74.645899999999997</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
+      </c>
+      <c r="B94">
+        <v>2E-3</v>
+      </c>
+      <c r="F94">
+        <v>7.8570000000000002</v>
+      </c>
+      <c r="H94">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L94">
+        <v>0.379</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -1227,24 +1507,795 @@
       <c r="A96" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>26.816400000000002</v>
+      </c>
+      <c r="G96">
+        <v>22.397600000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>56.268099999999997</v>
+      </c>
+      <c r="G97">
+        <v>52.034199999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>77.424199999999999</v>
+      </c>
+      <c r="G98">
+        <v>73.913700000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
+      <c r="B99">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G99">
+        <v>258.45699999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>12.543900000000001</v>
+      </c>
+      <c r="F102">
+        <v>12.2501</v>
+      </c>
+      <c r="H102">
+        <v>11.681900000000001</v>
+      </c>
+      <c r="L102">
+        <v>13.9305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>37.771799999999999</v>
+      </c>
+      <c r="F103">
+        <v>35.905000000000001</v>
+      </c>
+      <c r="H103">
+        <v>33.7121</v>
+      </c>
+      <c r="L103">
+        <v>37.602200000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>62.1877</v>
+      </c>
+      <c r="F104">
+        <v>60.318199999999997</v>
+      </c>
+      <c r="H104">
+        <v>52.257800000000003</v>
+      </c>
+      <c r="L104">
+        <v>55.8504</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>2E-3</v>
+      </c>
+      <c r="F105">
+        <v>7.63</v>
+      </c>
+      <c r="H105">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L105">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>12.019399999999999</v>
+      </c>
+      <c r="G107">
+        <v>14.7311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>33.194800000000001</v>
+      </c>
+      <c r="G108">
+        <v>35.424500000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>50.981000000000002</v>
+      </c>
+      <c r="G109">
+        <v>52.466299999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>0.36</v>
+      </c>
+      <c r="G110">
+        <v>112.877</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>12.895799999999999</v>
+      </c>
+      <c r="F113">
+        <v>12.074</v>
+      </c>
+      <c r="H113">
+        <v>11.3621</v>
+      </c>
+      <c r="L113">
+        <v>13.482100000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>38.526499999999999</v>
+      </c>
+      <c r="F114">
+        <v>36.4131</v>
+      </c>
+      <c r="H114">
+        <v>33.675600000000003</v>
+      </c>
+      <c r="L114">
+        <v>37.675800000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>62.203299999999999</v>
+      </c>
+      <c r="F115">
+        <v>60.650300000000001</v>
+      </c>
+      <c r="H115">
+        <v>53.146799999999999</v>
+      </c>
+      <c r="L115">
+        <v>55.346499999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>1E-3</v>
+      </c>
+      <c r="F116">
+        <v>4.6870000000000003</v>
+      </c>
+      <c r="H116">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L116">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>11.6595</v>
+      </c>
+      <c r="G118">
+        <v>15.1252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>33.4848</v>
+      </c>
+      <c r="G119">
+        <v>37.199199999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>52.2791</v>
+      </c>
+      <c r="G120">
+        <v>54.143700000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G121">
+        <v>66.197000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>12.640499999999999</v>
+      </c>
+      <c r="F124">
+        <v>11.5703</v>
+      </c>
+      <c r="H124">
+        <v>10.997999999999999</v>
+      </c>
+      <c r="L124">
+        <v>14.4849</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>37.925600000000003</v>
+      </c>
+      <c r="F125">
+        <v>35.5458</v>
+      </c>
+      <c r="H125">
+        <v>33.903799999999997</v>
+      </c>
+      <c r="L125">
+        <v>40.444499999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>63.3842</v>
+      </c>
+      <c r="F126">
+        <v>60.9636</v>
+      </c>
+      <c r="H126">
+        <v>56.646799999999999</v>
+      </c>
+      <c r="L126">
+        <v>58.480200000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127">
+        <v>1E-3</v>
+      </c>
+      <c r="F127">
+        <v>1.966</v>
+      </c>
+      <c r="H127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L127">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>12.3109</v>
+      </c>
+      <c r="G129">
+        <v>15.4627</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>36.072200000000002</v>
+      </c>
+      <c r="G130">
+        <v>38.555100000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>56.9497</v>
+      </c>
+      <c r="G131">
+        <v>55.198300000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132">
+        <v>0.187</v>
+      </c>
+      <c r="G132">
+        <v>32.088999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="98">
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:J150"/>
+    <mergeCell ref="K150:N150"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="K139:N139"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:O101"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="G84:J84"/>
     <mergeCell ref="B90:E90"/>
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="H90:K90"/>
@@ -1252,62 +2303,6 @@
     <mergeCell ref="B95:F95"/>
     <mergeCell ref="G95:J95"/>
     <mergeCell ref="K95:N95"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
